--- a/base/Order report/report.xlsx
+++ b/base/Order report/report.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>2022-03-21 - 2022-03-21</t>
+          <t>2022-03-21 - 2022-03-19</t>
         </is>
       </c>
     </row>
